--- a/数据包格式.xlsx
+++ b/数据包格式.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62308F1C-7D52-4E98-A38A-DC9EB7258AF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9ADCB-7B38-4A36-BB09-723FD2E535AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,25 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -292,6 +274,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,445 +575,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>7</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <v>5</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <v>4</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="12">
         <v>3</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="12">
         <v>2</v>
       </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>1</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="12">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13">
-        <v>1</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
-        <v>1</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
         <v>28</v>
       </c>
     </row>
